--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C51A3-0C91-4543-81C2-4B36FA20CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE3094-513D-41DC-A025-F528D6D80B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="86">
   <si>
     <t>CRONOGRAMA I2</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Object: Object_test</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -792,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,6 +1038,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1641,8 +1681,8 @@
         <v>12</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
@@ -1685,8 +1725,8 @@
         <v>12</v>
       </c>
       <c r="H6" s="50"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="54"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
@@ -1725,8 +1765,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="52"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="54"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="97"/>
       <c r="K7" s="54"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -1764,8 +1804,8 @@
         <v>12</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="29"/>
       <c r="L8" s="54" t="s">
         <v>38</v>
@@ -1805,8 +1845,8 @@
         <v>12</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="55" t="s">
         <v>39</v>
       </c>
@@ -1860,8 +1900,8 @@
         <v>12</v>
       </c>
       <c r="H10" s="50"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="29"/>
       <c r="L10" s="55" t="s">
         <v>38</v>
@@ -1903,8 +1943,8 @@
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="56" t="s">
+      <c r="I11" s="28"/>
+      <c r="J11" s="99" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="29"/>
@@ -1942,8 +1982,8 @@
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="56" t="s">
+      <c r="I12" s="28"/>
+      <c r="J12" s="99" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="56" t="s">
@@ -1983,8 +2023,8 @@
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="28"/>
+      <c r="J13" s="99" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="56" t="s">
@@ -2024,8 +2064,8 @@
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="56" t="s">
         <v>38</v>
       </c>
@@ -2065,8 +2105,8 @@
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="56" t="s">
         <v>38</v>
       </c>
@@ -2106,8 +2146,8 @@
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="56" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="99" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="56" t="s">
@@ -2149,8 +2189,8 @@
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="29"/>
       <c r="L17" s="56" t="s">
         <v>38</v>
@@ -2190,8 +2230,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="52"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="57" t="s">
+      <c r="I18" s="28"/>
+      <c r="J18" s="100" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="29"/>
@@ -2229,8 +2269,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="52"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="57" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="100" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="57" t="s">
@@ -2270,8 +2310,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="52"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="57" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="100" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="57" t="s">
@@ -2311,8 +2351,8 @@
         <v>12</v>
       </c>
       <c r="H21" s="50"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="57" t="s">
+      <c r="I21" s="28"/>
+      <c r="J21" s="100" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="57" t="s">
@@ -2352,8 +2392,8 @@
         <v>12</v>
       </c>
       <c r="H22" s="50"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="57" t="s">
+      <c r="I22" s="28"/>
+      <c r="J22" s="100" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="57" t="s">
@@ -2393,8 +2433,8 @@
         <v>12</v>
       </c>
       <c r="H23" s="50"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="50"/>
       <c r="K23" s="57" t="s">
         <v>39</v>
       </c>
@@ -2434,8 +2474,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="52"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="58" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="112" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="29"/>
@@ -2473,8 +2513,8 @@
       </c>
       <c r="G25" s="52"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -2512,8 +2552,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="52"/>
       <c r="H26" s="50"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="29"/>
       <c r="L26" s="58" t="s">
         <v>8</v>
@@ -2551,8 +2591,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="52"/>
       <c r="H27" s="50"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="58" t="s">
+      <c r="I27" s="28"/>
+      <c r="J27" s="112" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="29"/>
@@ -2590,8 +2630,8 @@
         <v>12</v>
       </c>
       <c r="H28" s="50"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="59" t="s">
@@ -2629,8 +2669,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="52"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="29"/>
       <c r="L29" s="53" t="s">
         <v>9</v>
@@ -2668,8 +2708,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="52"/>
       <c r="H30" s="50"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="50"/>
       <c r="K30" s="29"/>
       <c r="L30" s="53" t="s">
         <v>9</v>
@@ -2709,8 +2749,8 @@
         <v>12</v>
       </c>
       <c r="H31" s="50"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="60" t="s">
+      <c r="I31" s="28"/>
+      <c r="J31" s="102" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="29"/>
@@ -2748,8 +2788,8 @@
         <v>12</v>
       </c>
       <c r="H32" s="50"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="50"/>
       <c r="K32" s="60" t="s">
         <v>39</v>
       </c>
@@ -2789,8 +2829,8 @@
         <v>12</v>
       </c>
       <c r="H33" s="27"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="29"/>
       <c r="L33" s="60" t="s">
         <v>39</v>
@@ -2830,8 +2870,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="52"/>
       <c r="H34" s="50"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="50"/>
       <c r="K34" s="60" t="s">
         <v>8</v>
       </c>
@@ -2869,8 +2909,8 @@
       <c r="F35" s="1"/>
       <c r="G35" s="52"/>
       <c r="H35" s="50"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="60" t="s">
         <v>8</v>
       </c>
@@ -2912,8 +2952,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="52"/>
       <c r="H36" s="50"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="50"/>
       <c r="K36" s="29"/>
       <c r="L36" s="60" t="s">
         <v>8</v>
@@ -2953,8 +2993,8 @@
       <c r="F37" s="1"/>
       <c r="G37" s="52"/>
       <c r="H37" s="50"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="61" t="s">
+      <c r="I37" s="28"/>
+      <c r="J37" s="113" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="29"/>
@@ -2992,8 +3032,8 @@
       <c r="F38" s="1"/>
       <c r="G38" s="52"/>
       <c r="H38" s="50"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="61" t="s">
+      <c r="I38" s="28"/>
+      <c r="J38" s="113" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="61" t="s">
@@ -3033,8 +3073,8 @@
       <c r="F39" s="1"/>
       <c r="G39" s="52"/>
       <c r="H39" s="50"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="61" t="s">
+      <c r="I39" s="28"/>
+      <c r="J39" s="113" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="61" t="s">
@@ -3074,8 +3114,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="52"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="50"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="63"/>
@@ -3113,8 +3153,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="52"/>
       <c r="H41" s="50"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="50"/>
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -3154,8 +3194,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="52"/>
       <c r="H42" s="50"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="50"/>
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -3197,8 +3237,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="52"/>
       <c r="H43" s="50"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="50"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
@@ -3238,8 +3278,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="52"/>
       <c r="H44" s="50"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="50"/>
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -3281,8 +3321,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="52"/>
       <c r="H45" s="50"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="50"/>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
@@ -3324,8 +3364,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="52"/>
       <c r="H46" s="50"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="50"/>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -3363,8 +3403,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="52"/>
       <c r="H47" s="50"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -3406,8 +3446,8 @@
         <v>12</v>
       </c>
       <c r="H48" s="27"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3449,8 +3489,8 @@
         <v>12</v>
       </c>
       <c r="H49" s="51"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -3492,8 +3532,8 @@
         <v>12</v>
       </c>
       <c r="H50" s="50"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -3529,8 +3569,8 @@
       <c r="F51" s="26"/>
       <c r="G51" s="69"/>
       <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="70"/>
       <c r="K51" s="71"/>
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
@@ -3621,10 +3661,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3640,7 +3680,7 @@
     <col min="29" max="16384" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3711,7 @@
       <c r="Z1" s="87"/>
       <c r="AA1" s="88"/>
     </row>
-    <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="80" t="s">
         <v>37</v>
       </c>
@@ -3708,7 +3748,7 @@
       <c r="Z2" s="89"/>
       <c r="AA2" s="94"/>
     </row>
-    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="82"/>
       <c r="B3" s="83"/>
       <c r="C3" s="85"/>
@@ -3746,7 +3786,7 @@
       <c r="AA3" s="96"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
       <c r="B4" s="83"/>
       <c r="C4" s="85"/>
@@ -3824,7 +3864,7 @@
       </c>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3849,8 +3889,8 @@
       <c r="H5" s="27"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3867,8 +3907,15 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
       <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3893,8 +3940,8 @@
       <c r="H6" s="50"/>
       <c r="I6" s="29"/>
       <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="97"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -3912,7 +3959,7 @@
       <c r="AA6" s="28"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3922,10 +3969,10 @@
       <c r="C7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="115" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
@@ -3933,8 +3980,8 @@
       <c r="H7" s="50"/>
       <c r="I7" s="29"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -3951,7 +3998,7 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3972,8 +4019,8 @@
       <c r="H8" s="50"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="54" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="97" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="29"/>
@@ -3994,7 +4041,7 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4013,10 +4060,10 @@
       <c r="H9" s="50"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="98" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="29"/>
@@ -4047,7 +4094,7 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -4068,8 +4115,8 @@
       <c r="H10" s="50"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="55" t="s">
+      <c r="K10" s="28"/>
+      <c r="L10" s="98" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="29"/>
@@ -4092,7 +4139,7 @@
       <c r="Z10" s="29"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>15</v>
       </c>
@@ -4113,8 +4160,8 @@
       <c r="J11" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
@@ -4131,7 +4178,7 @@
       <c r="Z11" s="29"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
@@ -4152,10 +4199,10 @@
       <c r="J12" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
@@ -4172,7 +4219,7 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
@@ -4193,10 +4240,10 @@
       <c r="J13" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="29"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -4213,7 +4260,7 @@
       <c r="Z13" s="29"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
@@ -4232,10 +4279,10 @@
       <c r="H14" s="50"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="99" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="29"/>
@@ -4254,7 +4301,7 @@
       <c r="Z14" s="29"/>
       <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>15</v>
       </c>
@@ -4273,10 +4320,10 @@
       <c r="H15" s="50"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="99" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="29"/>
@@ -4295,7 +4342,7 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -4316,10 +4363,10 @@
       <c r="J16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="99" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="29"/>
@@ -4357,8 +4404,8 @@
       <c r="H17" s="50"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="56" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="99" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="56" t="s">
@@ -4400,8 +4447,8 @@
       <c r="J18" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -4439,10 +4486,10 @@
       <c r="J19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -4480,10 +4527,10 @@
       <c r="J20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -4521,10 +4568,10 @@
       <c r="J21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="29"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -4562,10 +4609,10 @@
       <c r="J22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="29"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
@@ -4601,10 +4648,10 @@
       <c r="H23" s="50"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="100" t="s">
         <v>39</v>
       </c>
       <c r="M23" s="29"/>
@@ -4633,7 +4680,7 @@
       <c r="C24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1"/>
@@ -4644,8 +4691,8 @@
       <c r="J24" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
@@ -4681,8 +4728,8 @@
       <c r="H25" s="50"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="29"/>
       <c r="N25" s="58" t="s">
         <v>38</v>
@@ -4720,8 +4767,8 @@
       <c r="H26" s="50"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="50"/>
       <c r="M26" s="29"/>
       <c r="N26" s="58" t="s">
         <v>8</v>
@@ -4759,8 +4806,8 @@
       <c r="H27" s="50"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="58" t="s">
         <v>8</v>
       </c>
@@ -4798,8 +4845,8 @@
       <c r="H28" s="50"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="50"/>
       <c r="M28" s="59" t="s">
         <v>39</v>
       </c>
@@ -4837,8 +4884,8 @@
       <c r="H29" s="50"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="53" t="s">
+      <c r="K29" s="28"/>
+      <c r="L29" s="101" t="s">
         <v>9</v>
       </c>
       <c r="M29" s="29"/>
@@ -4876,8 +4923,8 @@
       <c r="H30" s="50"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="53" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="101" t="s">
         <v>9</v>
       </c>
       <c r="M30" s="53" t="s">
@@ -4911,7 +4958,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="114" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="50"/>
@@ -4919,8 +4966,8 @@
       <c r="J31" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
@@ -4950,16 +4997,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="114" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="102" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="29"/>
@@ -4997,8 +5044,8 @@
       <c r="H33" s="27"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="60" t="s">
+      <c r="K33" s="28"/>
+      <c r="L33" s="102" t="s">
         <v>39</v>
       </c>
       <c r="M33" s="60" t="s">
@@ -5029,7 +5076,7 @@
       <c r="C34" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1"/>
@@ -5038,8 +5085,8 @@
       <c r="H34" s="50"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="60" t="s">
         <v>8</v>
       </c>
@@ -5068,7 +5115,7 @@
       <c r="C35" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1"/>
@@ -5077,8 +5124,8 @@
       <c r="H35" s="50"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="50"/>
       <c r="M35" s="60" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5158,7 @@
       <c r="C36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1"/>
@@ -5120,8 +5167,8 @@
       <c r="H36" s="50"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="29"/>
       <c r="N36" s="60" t="s">
         <v>8</v>
@@ -5152,7 +5199,7 @@
       <c r="C37" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1"/>
@@ -5163,8 +5210,8 @@
       <c r="J37" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="50"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
@@ -5191,7 +5238,7 @@
       <c r="C38" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1"/>
@@ -5202,10 +5249,10 @@
       <c r="J38" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="K38" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="29"/>
+      <c r="L38" s="50"/>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
@@ -5232,7 +5279,7 @@
       <c r="C39" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="1"/>
@@ -5243,10 +5290,10 @@
       <c r="J39" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="K39" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="29"/>
+      <c r="L39" s="50"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
@@ -5282,8 +5329,8 @@
       <c r="H40" s="50"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="50"/>
       <c r="M40" s="63"/>
       <c r="N40" s="15" t="s">
         <v>9</v>
@@ -5321,8 +5368,8 @@
       <c r="H41" s="50"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="50"/>
       <c r="M41" s="29"/>
       <c r="N41" s="15" t="s">
         <v>9</v>
@@ -5362,8 +5409,8 @@
       <c r="H42" s="50"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="50"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
       <c r="O42" s="15" t="s">
@@ -5405,8 +5452,8 @@
       <c r="H43" s="50"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="50"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
@@ -5446,8 +5493,8 @@
       <c r="H44" s="50"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="50"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
       <c r="O44" s="29"/>
@@ -5489,8 +5536,8 @@
       <c r="H45" s="50"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="50"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
@@ -5523,7 +5570,7 @@
       <c r="C46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="1"/>
@@ -5532,10 +5579,10 @@
       <c r="H46" s="50"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="29"/>
+      <c r="L46" s="50"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
@@ -5562,7 +5609,7 @@
       <c r="C47" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="115" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="1"/>
@@ -5571,10 +5618,10 @@
       <c r="H47" s="50"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="62" t="s">
+      <c r="L47" s="103" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="29"/>
@@ -5614,8 +5661,8 @@
       <c r="H48" s="27"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="27"/>
       <c r="M48" s="1"/>
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
@@ -5657,8 +5704,8 @@
       <c r="H49" s="51"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="51"/>
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
@@ -5700,8 +5747,8 @@
       <c r="H50" s="50"/>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="50"/>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
@@ -5737,8 +5784,8 @@
       <c r="H51" s="70"/>
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="71"/>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fernandpo\cosa_uni\proyecto_program\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE3094-513D-41DC-A025-F528D6D80B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F748EC15-FC66-48C9-AAAA-180B9B4D0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIGNACIÓN DE RECURSOS" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -300,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +450,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -804,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,69 +994,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,6 +1020,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,9 +1114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1134,7 +1154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1240,7 +1260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1382,7 +1402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1399,12 +1419,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1461,129 +1481,129 @@
       <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.90625" style="3"/>
+    <col min="5" max="17" width="2.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="2.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:28" ht="25.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="88"/>
-    </row>
-    <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
+    </row>
+    <row r="2" spans="1:28" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="94"/>
-    </row>
-    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="95" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="114"/>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="96"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="116"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85"/>
+    <row r="4" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1678,7 @@
       </c>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="104"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="27"/>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
@@ -1702,7 +1722,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1726,7 +1746,7 @@
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="97"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
@@ -1746,7 +1766,7 @@
       <c r="AA6" s="28"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1786,7 @@
       <c r="G7" s="52"/>
       <c r="H7" s="50"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="97"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="54"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -1785,7 +1805,7 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1848,7 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1901,7 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +1946,7 @@
       <c r="Z10" s="29"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>15</v>
       </c>
@@ -1944,7 +1964,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="50"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="29"/>
@@ -1965,7 +1985,7 @@
       <c r="Z11" s="29"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +2003,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="50"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="56" t="s">
@@ -2006,7 +2026,7 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +2044,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="50"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="56" t="s">
@@ -2047,7 +2067,7 @@
       <c r="Z13" s="29"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
@@ -2088,7 +2108,7 @@
       <c r="Z14" s="29"/>
       <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2149,7 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -2147,7 +2167,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="50"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="56" t="s">
@@ -2172,7 +2192,7 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="28"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2233,7 @@
       <c r="Z17" s="29"/>
       <c r="AA17" s="28"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2251,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="50"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="29"/>
@@ -2252,7 +2272,7 @@
       <c r="Z18" s="29"/>
       <c r="AA18" s="28"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2290,7 @@
       <c r="G19" s="52"/>
       <c r="H19" s="50"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="57" t="s">
@@ -2293,7 +2313,7 @@
       <c r="Z19" s="29"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2331,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="50"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="57" t="s">
@@ -2334,7 +2354,7 @@
       <c r="Z20" s="29"/>
       <c r="AA20" s="28"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2352,7 +2372,7 @@
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="79" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="57" t="s">
@@ -2375,7 +2395,7 @@
       <c r="Z21" s="29"/>
       <c r="AA21" s="28"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2393,7 +2413,7 @@
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="100" t="s">
+      <c r="J22" s="79" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="57" t="s">
@@ -2416,7 +2436,7 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="28"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2457,7 +2477,7 @@
       <c r="Z23" s="29"/>
       <c r="AA23" s="28"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2495,7 @@
       <c r="G24" s="52"/>
       <c r="H24" s="50"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="91" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="29"/>
@@ -2496,7 +2516,7 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="28"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2555,7 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="28"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
@@ -2574,7 +2594,7 @@
       <c r="Z26" s="29"/>
       <c r="AA26" s="28"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
@@ -2592,7 +2612,7 @@
       <c r="G27" s="52"/>
       <c r="H27" s="50"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="112" t="s">
+      <c r="J27" s="91" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="29"/>
@@ -2613,7 +2633,7 @@
       <c r="Z27" s="29"/>
       <c r="AA27" s="28"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2672,7 @@
       <c r="Z28" s="29"/>
       <c r="AA28" s="28"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2711,7 @@
       <c r="Z29" s="29"/>
       <c r="AA29" s="28"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2752,7 @@
       <c r="Z30" s="29"/>
       <c r="AA30" s="28"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>21</v>
       </c>
@@ -2750,7 +2770,7 @@
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="102" t="s">
+      <c r="J31" s="81" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="29"/>
@@ -2771,7 +2791,7 @@
       <c r="Z31" s="29"/>
       <c r="AA31" s="28"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2832,7 @@
       <c r="Z32" s="29"/>
       <c r="AA32" s="28"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2873,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +2912,7 @@
       <c r="Z34" s="29"/>
       <c r="AA34" s="28"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>21</v>
       </c>
@@ -2935,7 +2955,7 @@
       <c r="Z35" s="29"/>
       <c r="AA35" s="28"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
@@ -2976,7 +2996,7 @@
       <c r="Z36" s="29"/>
       <c r="AA36" s="28"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
@@ -2994,7 +3014,7 @@
       <c r="G37" s="52"/>
       <c r="H37" s="50"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="113" t="s">
+      <c r="J37" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="29"/>
@@ -3015,7 +3035,7 @@
       <c r="Z37" s="29"/>
       <c r="AA37" s="28"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
@@ -3033,7 +3053,7 @@
       <c r="G38" s="52"/>
       <c r="H38" s="50"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="113" t="s">
+      <c r="J38" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="61" t="s">
@@ -3056,7 +3076,7 @@
       <c r="Z38" s="29"/>
       <c r="AA38" s="28"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
@@ -3074,7 +3094,7 @@
       <c r="G39" s="52"/>
       <c r="H39" s="50"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="113" t="s">
+      <c r="J39" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="61" t="s">
@@ -3097,7 +3117,7 @@
       <c r="Z39" s="29"/>
       <c r="AA39" s="28"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
@@ -3136,7 +3156,7 @@
       <c r="Z40" s="29"/>
       <c r="AA40" s="28"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3197,7 @@
       <c r="Z41" s="29"/>
       <c r="AA41" s="28"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>23</v>
       </c>
@@ -3220,7 +3240,7 @@
       <c r="Z42" s="29"/>
       <c r="AA42" s="28"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>24</v>
       </c>
@@ -3261,7 +3281,7 @@
       <c r="Z43" s="29"/>
       <c r="AA43" s="28"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
@@ -3304,7 +3324,7 @@
       <c r="Z44" s="29"/>
       <c r="AA44" s="28"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3367,7 @@
       <c r="Z45" s="29"/>
       <c r="AA45" s="28"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>25</v>
       </c>
@@ -3386,7 +3406,7 @@
       <c r="Z46" s="29"/>
       <c r="AA46" s="28"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3447,7 @@
       <c r="Z47" s="29"/>
       <c r="AA47" s="28"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
         <v>26</v>
       </c>
@@ -3466,7 +3486,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>27</v>
       </c>
@@ -3489,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="51"/>
-      <c r="I49" s="111"/>
+      <c r="I49" s="90"/>
       <c r="J49" s="51"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
@@ -3509,7 +3529,7 @@
       <c r="Z49" s="29"/>
       <c r="AA49" s="28"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>28</v>
       </c>
@@ -3552,7 +3572,7 @@
       <c r="Z50" s="29"/>
       <c r="AA50" s="28"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="66" t="s">
         <v>29</v>
       </c>
@@ -3591,9 +3611,9 @@
       <c r="Z51" s="71"/>
       <c r="AA51" s="73"/>
     </row>
-    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -3613,29 +3633,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="77"/>
-    </row>
-    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="97"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="1048576" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P1048576" s="1"/>
     </row>
   </sheetData>
@@ -3663,133 +3683,133 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.90625" style="3"/>
+    <col min="5" max="17" width="2.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="2.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:31" ht="25.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="88"/>
-    </row>
-    <row r="2" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
+    </row>
+    <row r="2" spans="1:31" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="94"/>
-    </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="95" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="114"/>
+    </row>
+    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="96"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="116"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85"/>
+    <row r="4" spans="1:31" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3864,7 +3884,7 @@
       </c>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +3909,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="104"/>
+      <c r="K5" s="83"/>
       <c r="L5" s="27"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
@@ -3907,7 +3927,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
       <c r="AB5"/>
-      <c r="AC5" s="116"/>
+      <c r="AC5" s="95"/>
       <c r="AD5" s="3" t="s">
         <v>84</v>
       </c>
@@ -3915,7 +3935,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3961,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="54"/>
       <c r="K6" s="24"/>
-      <c r="L6" s="97"/>
+      <c r="L6" s="76"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -3959,7 +3979,7 @@
       <c r="AA6" s="28"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3969,10 +3989,10 @@
       <c r="C7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="115" t="s">
+      <c r="D7" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="94" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
@@ -3998,7 +4018,7 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +4040,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="76" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="29"/>
@@ -4041,7 +4061,7 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4060,10 +4080,10 @@
       <c r="H9" s="50"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="77" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="29"/>
@@ -4094,7 +4114,7 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -4116,7 +4136,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="29"/>
@@ -4139,7 +4159,7 @@
       <c r="Z10" s="29"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>15</v>
       </c>
@@ -4178,7 +4198,7 @@
       <c r="Z11" s="29"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
@@ -4199,7 +4219,7 @@
       <c r="J12" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="85" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="50"/>
@@ -4219,7 +4239,7 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4260,7 @@
       <c r="J13" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="106" t="s">
+      <c r="K13" s="85" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="50"/>
@@ -4260,7 +4280,7 @@
       <c r="Z13" s="29"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
@@ -4279,10 +4299,10 @@
       <c r="H14" s="50"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="106" t="s">
+      <c r="K14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="29"/>
@@ -4301,7 +4321,7 @@
       <c r="Z14" s="29"/>
       <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>15</v>
       </c>
@@ -4320,10 +4340,10 @@
       <c r="H15" s="50"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="106" t="s">
+      <c r="K15" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="29"/>
@@ -4342,7 +4362,7 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -4363,10 +4383,10 @@
       <c r="J16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="106" t="s">
+      <c r="K16" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="99" t="s">
+      <c r="L16" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="29"/>
@@ -4385,7 +4405,7 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="28"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -4405,7 +4425,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="99" t="s">
+      <c r="L17" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="56" t="s">
@@ -4426,7 +4446,7 @@
       <c r="Z17" s="29"/>
       <c r="AA17" s="28"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -4437,7 +4457,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="1"/>
@@ -4465,7 +4485,7 @@
       <c r="Z18" s="29"/>
       <c r="AA18" s="28"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -4476,7 +4496,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="1"/>
@@ -4486,7 +4506,7 @@
       <c r="J19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="107" t="s">
+      <c r="K19" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L19" s="50"/>
@@ -4506,7 +4526,7 @@
       <c r="Z19" s="29"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -4517,7 +4537,7 @@
         <v>56</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
@@ -4527,7 +4547,7 @@
       <c r="J20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="50"/>
@@ -4547,7 +4567,7 @@
       <c r="Z20" s="29"/>
       <c r="AA20" s="28"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4588,7 @@
       <c r="J21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="86" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="50"/>
@@ -4588,7 +4608,7 @@
       <c r="Z21" s="29"/>
       <c r="AA21" s="28"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -4609,7 +4629,7 @@
       <c r="J22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="107" t="s">
+      <c r="K22" s="86" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="50"/>
@@ -4629,7 +4649,7 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="28"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -4648,10 +4668,10 @@
       <c r="H23" s="50"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="100" t="s">
+      <c r="L23" s="79" t="s">
         <v>39</v>
       </c>
       <c r="M23" s="29"/>
@@ -4670,7 +4690,7 @@
       <c r="Z23" s="29"/>
       <c r="AA23" s="28"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -4680,7 +4700,7 @@
       <c r="C24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1"/>
@@ -4709,7 +4729,7 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="28"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -4748,7 +4768,7 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="28"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
@@ -4787,7 +4807,7 @@
       <c r="Z26" s="29"/>
       <c r="AA26" s="28"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
@@ -4826,7 +4846,7 @@
       <c r="Z27" s="29"/>
       <c r="AA27" s="28"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
@@ -4865,7 +4885,7 @@
       <c r="Z28" s="29"/>
       <c r="AA28" s="28"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>20</v>
       </c>
@@ -4885,7 +4905,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="101" t="s">
+      <c r="L29" s="80" t="s">
         <v>9</v>
       </c>
       <c r="M29" s="29"/>
@@ -4904,7 +4924,7 @@
       <c r="Z29" s="29"/>
       <c r="AA29" s="28"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>20</v>
       </c>
@@ -4924,7 +4944,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="101" t="s">
+      <c r="L30" s="80" t="s">
         <v>9</v>
       </c>
       <c r="M30" s="53" t="s">
@@ -4945,7 +4965,7 @@
       <c r="Z30" s="29"/>
       <c r="AA30" s="28"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>21</v>
       </c>
@@ -4958,7 +4978,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="114" t="s">
+      <c r="G31" s="93" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="50"/>
@@ -4984,7 +5004,7 @@
       <c r="Z31" s="29"/>
       <c r="AA31" s="28"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>21</v>
       </c>
@@ -4997,16 +5017,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="114" t="s">
+      <c r="G32" s="93" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="102" t="s">
+      <c r="L32" s="81" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="29"/>
@@ -5025,7 +5045,7 @@
       <c r="Z32" s="29"/>
       <c r="AA32" s="28"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>21</v>
       </c>
@@ -5045,7 +5065,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="102" t="s">
+      <c r="L33" s="81" t="s">
         <v>39</v>
       </c>
       <c r="M33" s="60" t="s">
@@ -5066,7 +5086,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
@@ -5076,7 +5096,7 @@
       <c r="C34" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1"/>
@@ -5105,7 +5125,7 @@
       <c r="Z34" s="29"/>
       <c r="AA34" s="28"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>21</v>
       </c>
@@ -5115,7 +5135,7 @@
       <c r="C35" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1"/>
@@ -5148,7 +5168,7 @@
       <c r="Z35" s="29"/>
       <c r="AA35" s="28"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
@@ -5158,7 +5178,7 @@
       <c r="C36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1"/>
@@ -5189,7 +5209,7 @@
       <c r="Z36" s="29"/>
       <c r="AA36" s="28"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>22</v>
       </c>
@@ -5199,7 +5219,7 @@
       <c r="C37" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1"/>
@@ -5228,7 +5248,7 @@
       <c r="Z37" s="29"/>
       <c r="AA37" s="28"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>22</v>
       </c>
@@ -5238,7 +5258,7 @@
       <c r="C38" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1"/>
@@ -5249,7 +5269,7 @@
       <c r="J38" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="109" t="s">
+      <c r="K38" s="88" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="50"/>
@@ -5269,7 +5289,7 @@
       <c r="Z38" s="29"/>
       <c r="AA38" s="28"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>22</v>
       </c>
@@ -5279,7 +5299,7 @@
       <c r="C39" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="1"/>
@@ -5290,7 +5310,7 @@
       <c r="J39" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="109" t="s">
+      <c r="K39" s="88" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="50"/>
@@ -5310,7 +5330,7 @@
       <c r="Z39" s="29"/>
       <c r="AA39" s="28"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
@@ -5349,7 +5369,7 @@
       <c r="Z40" s="29"/>
       <c r="AA40" s="28"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>23</v>
       </c>
@@ -5390,7 +5410,7 @@
       <c r="Z41" s="29"/>
       <c r="AA41" s="28"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>23</v>
       </c>
@@ -5433,7 +5453,7 @@
       <c r="Z42" s="29"/>
       <c r="AA42" s="28"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>24</v>
       </c>
@@ -5474,7 +5494,7 @@
       <c r="Z43" s="29"/>
       <c r="AA43" s="28"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
@@ -5517,7 +5537,7 @@
       <c r="Z44" s="29"/>
       <c r="AA44" s="28"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>24</v>
       </c>
@@ -5560,7 +5580,7 @@
       <c r="Z45" s="29"/>
       <c r="AA45" s="28"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>25</v>
       </c>
@@ -5570,7 +5590,7 @@
       <c r="C46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="1"/>
@@ -5579,7 +5599,7 @@
       <c r="H46" s="50"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
-      <c r="K46" s="110" t="s">
+      <c r="K46" s="89" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="50"/>
@@ -5599,7 +5619,7 @@
       <c r="Z46" s="29"/>
       <c r="AA46" s="28"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>25</v>
       </c>
@@ -5609,7 +5629,7 @@
       <c r="C47" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="94" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="1"/>
@@ -5618,10 +5638,10 @@
       <c r="H47" s="50"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="110" t="s">
+      <c r="K47" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="103" t="s">
+      <c r="L47" s="82" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="29"/>
@@ -5640,7 +5660,7 @@
       <c r="Z47" s="29"/>
       <c r="AA47" s="28"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
         <v>26</v>
       </c>
@@ -5679,7 +5699,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>27</v>
       </c>
@@ -5704,7 +5724,7 @@
       <c r="H49" s="51"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="111"/>
+      <c r="K49" s="90"/>
       <c r="L49" s="51"/>
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
@@ -5722,7 +5742,7 @@
       <c r="Z49" s="29"/>
       <c r="AA49" s="28"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>28</v>
       </c>
@@ -5765,7 +5785,7 @@
       <c r="Z50" s="29"/>
       <c r="AA50" s="28"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="66" t="s">
         <v>29</v>
       </c>
@@ -5804,9 +5824,9 @@
       <c r="Z51" s="71"/>
       <c r="AA51" s="73"/>
     </row>
-    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -5826,29 +5846,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="77"/>
-    </row>
-    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="97"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="1048576" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P1048576" s="1"/>
     </row>
   </sheetData>

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE3094-513D-41DC-A025-F528D6D80B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951AE84-49FE-4709-882C-5DB837B4DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
   <si>
     <t>CRONOGRAMA I2</t>
   </si>
@@ -279,12 +279,6 @@
   </si>
   <si>
     <t>Object: Object_test</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -300,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +433,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -977,69 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1059,13 +996,76 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,115 +1475,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="88"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="106"/>
     </row>
     <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="94"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="112"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="95" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91" t="s">
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91" t="s">
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="96"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="114"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="104"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="27"/>
       <c r="K5" s="5"/>
       <c r="L5" s="1"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="97"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
@@ -1766,7 +1766,7 @@
       <c r="G7" s="52"/>
       <c r="H7" s="50"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="97"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="54"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
@@ -1944,7 +1944,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="50"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K11" s="29"/>
@@ -1983,7 +1983,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="50"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="56" t="s">
@@ -2024,7 +2024,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="50"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="56" t="s">
@@ -2147,7 +2147,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="50"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="78" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="56" t="s">
@@ -2231,7 +2231,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="50"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="29"/>
@@ -2270,7 +2270,7 @@
       <c r="G19" s="52"/>
       <c r="H19" s="50"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="57" t="s">
@@ -2311,7 +2311,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="50"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="79" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="57" t="s">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="100" t="s">
+      <c r="J21" s="79" t="s">
         <v>39</v>
       </c>
       <c r="K21" s="57" t="s">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="100" t="s">
+      <c r="J22" s="79" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="57" t="s">
@@ -2475,7 +2475,7 @@
       <c r="G24" s="52"/>
       <c r="H24" s="50"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="91" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="29"/>
@@ -2592,7 +2592,7 @@
       <c r="G27" s="52"/>
       <c r="H27" s="50"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="112" t="s">
+      <c r="J27" s="91" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="29"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="102" t="s">
+      <c r="J31" s="81" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="29"/>
@@ -2994,7 +2994,7 @@
       <c r="G37" s="52"/>
       <c r="H37" s="50"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="113" t="s">
+      <c r="J37" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="29"/>
@@ -3033,7 +3033,7 @@
       <c r="G38" s="52"/>
       <c r="H38" s="50"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="113" t="s">
+      <c r="J38" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="61" t="s">
@@ -3074,7 +3074,7 @@
       <c r="G39" s="52"/>
       <c r="H39" s="50"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="113" t="s">
+      <c r="J39" s="92" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="61" t="s">
@@ -3489,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="51"/>
-      <c r="I49" s="111"/>
+      <c r="I49" s="90"/>
       <c r="J49" s="51"/>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
@@ -3592,8 +3592,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -3613,26 +3613,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="77"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="94"/>
+      <c r="AA52" s="95"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -3661,10 +3661,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AE1048576"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3680,116 +3680,116 @@
     <col min="29" max="16384" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="88"/>
-    </row>
-    <row r="2" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="106"/>
+    </row>
+    <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="93" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="94"/>
-    </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="95" t="s">
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="112"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91" t="s">
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91" t="s">
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="96"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="114"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="85"/>
+    <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="104"/>
+      <c r="K5" s="83"/>
       <c r="L5" s="27"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
@@ -3907,15 +3907,12 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
       <c r="AB5"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3938,7 @@
       <c r="I6" s="29"/>
       <c r="J6" s="54"/>
       <c r="K6" s="24"/>
-      <c r="L6" s="97"/>
+      <c r="L6" s="76"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -3959,7 +3956,7 @@
       <c r="AA6" s="28"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3969,10 +3966,10 @@
       <c r="C7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="115" t="s">
+      <c r="D7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="93" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1"/>
@@ -3998,7 +3995,7 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +4017,7 @@
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="76" t="s">
         <v>38</v>
       </c>
       <c r="M8" s="29"/>
@@ -4041,7 +4038,7 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4060,10 +4057,10 @@
       <c r="H9" s="50"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="77" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="29"/>
@@ -4094,7 +4091,7 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -4116,7 +4113,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="77" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="29"/>
@@ -4139,7 +4136,7 @@
       <c r="Z10" s="29"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>15</v>
       </c>
@@ -4178,7 +4175,7 @@
       <c r="Z11" s="29"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
@@ -4199,7 +4196,7 @@
       <c r="J12" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="85" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="50"/>
@@ -4219,7 +4216,7 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="J13" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="106" t="s">
+      <c r="K13" s="85" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="50"/>
@@ -4260,7 +4257,7 @@
       <c r="Z13" s="29"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
@@ -4279,10 +4276,10 @@
       <c r="H14" s="50"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="106" t="s">
+      <c r="K14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="29"/>
@@ -4301,7 +4298,7 @@
       <c r="Z14" s="29"/>
       <c r="AA14" s="28"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>15</v>
       </c>
@@ -4311,19 +4308,19 @@
       <c r="C15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="52"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="116"/>
       <c r="H15" s="50"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="106" t="s">
+      <c r="K15" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="29"/>
@@ -4342,7 +4339,7 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="28"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
@@ -4352,21 +4349,21 @@
       <c r="C16" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="52"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="116"/>
       <c r="H16" s="50"/>
       <c r="I16" s="29"/>
       <c r="J16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="106" t="s">
+      <c r="K16" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="99" t="s">
+      <c r="L16" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="29"/>
@@ -4395,17 +4392,17 @@
       <c r="C17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="52"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="116"/>
       <c r="H17" s="50"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="99" t="s">
+      <c r="L17" s="78" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="56" t="s">
@@ -4436,12 +4433,12 @@
       <c r="C18" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="50"/>
       <c r="I18" s="29"/>
       <c r="J18" s="57" t="s">
@@ -4475,18 +4472,18 @@
       <c r="C19" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="52"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="50"/>
       <c r="I19" s="29"/>
       <c r="J19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="107" t="s">
+      <c r="K19" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L19" s="50"/>
@@ -4516,18 +4513,18 @@
       <c r="C20" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="52"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="115"/>
+      <c r="G20" s="116"/>
       <c r="H20" s="50"/>
       <c r="I20" s="29"/>
       <c r="J20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="86" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="50"/>
@@ -4557,10 +4554,10 @@
       <c r="C21" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="52" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="50"/>
@@ -4568,7 +4565,7 @@
       <c r="J21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="86" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="50"/>
@@ -4598,10 +4595,10 @@
       <c r="C22" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="52" t="s">
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="50"/>
@@ -4609,7 +4606,7 @@
       <c r="J22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="107" t="s">
+      <c r="K22" s="86" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="50"/>
@@ -4639,19 +4636,19 @@
       <c r="C23" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="52" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="100" t="s">
+      <c r="L23" s="79" t="s">
         <v>39</v>
       </c>
       <c r="M23" s="29"/>
@@ -4683,9 +4680,9 @@
       <c r="D24" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="52"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="50"/>
       <c r="I24" s="29"/>
       <c r="J24" s="58" t="s">
@@ -4719,12 +4716,12 @@
       <c r="C25" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="52"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="116"/>
       <c r="H25" s="50"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -4758,12 +4755,12 @@
       <c r="C26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="52"/>
+      <c r="D26" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="50"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4797,12 +4794,12 @@
       <c r="C27" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="52"/>
+      <c r="D27" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="50"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
@@ -4836,10 +4833,10 @@
       <c r="C28" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="52" t="s">
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="50"/>
@@ -4875,17 +4872,17 @@
       <c r="C29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="52"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
       <c r="H29" s="50"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="101" t="s">
+      <c r="L29" s="80" t="s">
         <v>9</v>
       </c>
       <c r="M29" s="29"/>
@@ -4914,17 +4911,17 @@
       <c r="C30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="52"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="50"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="101" t="s">
+      <c r="L30" s="80" t="s">
         <v>9</v>
       </c>
       <c r="M30" s="53" t="s">
@@ -4955,10 +4952,10 @@
       <c r="C31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="114" t="s">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="50"/>
@@ -4994,19 +4991,19 @@
       <c r="C32" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="114" t="s">
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="102" t="s">
+      <c r="L32" s="81" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="29"/>
@@ -5035,17 +5032,17 @@
       <c r="C33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="52" t="s">
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="102" t="s">
+      <c r="L33" s="81" t="s">
         <v>39</v>
       </c>
       <c r="M33" s="60" t="s">
@@ -5079,9 +5076,9 @@
       <c r="D34" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="52"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="50"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -5118,9 +5115,9 @@
       <c r="D35" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="50"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
@@ -5161,9 +5158,9 @@
       <c r="D36" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="52"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="50"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -5202,9 +5199,9 @@
       <c r="D37" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="50"/>
       <c r="I37" s="29"/>
       <c r="J37" s="61" t="s">
@@ -5241,15 +5238,15 @@
       <c r="D38" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="52"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="50"/>
       <c r="I38" s="29"/>
       <c r="J38" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="109" t="s">
+      <c r="K38" s="88" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="50"/>
@@ -5282,15 +5279,15 @@
       <c r="D39" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="52"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="50"/>
       <c r="I39" s="29"/>
       <c r="J39" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="109" t="s">
+      <c r="K39" s="88" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="50"/>
@@ -5320,12 +5317,12 @@
       <c r="C40" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="52"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="50"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
@@ -5359,12 +5356,12 @@
       <c r="C41" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="52"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="50"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -5400,12 +5397,12 @@
       <c r="C42" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="52"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="50"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -5443,12 +5440,12 @@
       <c r="C43" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="52"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="50"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
@@ -5484,12 +5481,12 @@
       <c r="C44" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="52"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
       <c r="H44" s="50"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -5527,12 +5524,12 @@
       <c r="C45" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="52"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
       <c r="H45" s="50"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
@@ -5573,13 +5570,13 @@
       <c r="D46" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="52"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="50"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
-      <c r="K46" s="110" t="s">
+      <c r="K46" s="89" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="50"/>
@@ -5612,16 +5609,16 @@
       <c r="D47" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="52"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="50"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="110" t="s">
+      <c r="K47" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="103" t="s">
+      <c r="L47" s="82" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="29"/>
@@ -5650,12 +5647,12 @@
       <c r="C48" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="52" t="s">
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="27"/>
@@ -5689,22 +5686,22 @@
       <c r="C49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="52" t="s">
+      <c r="D49" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="116" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="111"/>
+      <c r="K49" s="90"/>
       <c r="L49" s="51"/>
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
@@ -5805,8 +5802,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -5826,26 +5823,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="77"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="94"/>
+      <c r="AA52" s="95"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951AE84-49FE-4709-882C-5DB837B4DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD74DF-C696-40C8-9316-2FC3898A5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="2" activeTab="3" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIGNACIÓN DE RECURSOS" sheetId="2" r:id="rId1"/>
     <sheet name="DIAGRAMA DE GANTT 18-3-2025" sheetId="1" r:id="rId2"/>
     <sheet name="DIAGRAMA DE GANTT 20-3-2025" sheetId="3" r:id="rId3"/>
+    <sheet name="DIAGRAMA DE GANTT 24-3-2025" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="84">
   <si>
     <t>CRONOGRAMA I2</t>
   </si>
@@ -804,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,6 +1000,12 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,12 +1069,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,115 +1485,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
     </row>
     <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="112"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="114"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="113" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="114"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="116"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3592,8 +3602,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="96"/>
-      <c r="B52" s="97"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -3613,26 +3623,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="95"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="97"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -3663,7 +3673,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
@@ -3681,115 +3691,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="112"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="114"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="113" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109" t="s">
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109" t="s">
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="114"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="116"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4308,12 +4318,12 @@
       <c r="C15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="116"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="95"/>
       <c r="H15" s="50"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -4349,12 +4359,12 @@
       <c r="C16" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="116"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="95"/>
       <c r="H16" s="50"/>
       <c r="I16" s="29"/>
       <c r="J16" s="56" t="s">
@@ -4392,12 +4402,12 @@
       <c r="C17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="116"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="95"/>
       <c r="H17" s="50"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -4433,12 +4443,12 @@
       <c r="C18" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="50"/>
       <c r="I18" s="29"/>
       <c r="J18" s="57" t="s">
@@ -4472,12 +4482,12 @@
       <c r="C19" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="50"/>
       <c r="I19" s="29"/>
       <c r="J19" s="57" t="s">
@@ -4513,12 +4523,12 @@
       <c r="C20" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="50"/>
       <c r="I20" s="29"/>
       <c r="J20" s="57" t="s">
@@ -4554,10 +4564,10 @@
       <c r="C21" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116" t="s">
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="50"/>
@@ -4595,10 +4605,10 @@
       <c r="C22" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="50"/>
@@ -4636,10 +4646,10 @@
       <c r="C23" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116" t="s">
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="50"/>
@@ -4677,12 +4687,12 @@
       <c r="C24" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="D24" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="50"/>
       <c r="I24" s="29"/>
       <c r="J24" s="58" t="s">
@@ -4716,12 +4726,12 @@
       <c r="C25" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="116"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="95"/>
       <c r="H25" s="50"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -4755,12 +4765,12 @@
       <c r="C26" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="D26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
       <c r="H26" s="50"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4794,12 +4804,12 @@
       <c r="C27" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="D27" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="50"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
@@ -4833,10 +4843,10 @@
       <c r="C28" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="50"/>
@@ -4872,12 +4882,12 @@
       <c r="C29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="50"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
@@ -4911,12 +4921,12 @@
       <c r="C30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
       <c r="H30" s="50"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
@@ -4952,10 +4962,10 @@
       <c r="C31" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116" t="s">
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="50"/>
@@ -4991,10 +5001,10 @@
       <c r="C32" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116" t="s">
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="50"/>
@@ -5032,10 +5042,10 @@
       <c r="C33" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116" t="s">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="27"/>
@@ -5073,12 +5083,12 @@
       <c r="C34" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
+      <c r="D34" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
       <c r="H34" s="50"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -5112,12 +5122,12 @@
       <c r="C35" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
+      <c r="D35" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="50"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
@@ -5155,12 +5165,12 @@
       <c r="C36" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
+      <c r="D36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="50"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -5196,12 +5206,12 @@
       <c r="C37" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
+      <c r="D37" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="50"/>
       <c r="I37" s="29"/>
       <c r="J37" s="61" t="s">
@@ -5235,12 +5245,12 @@
       <c r="C38" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
+      <c r="D38" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
       <c r="H38" s="50"/>
       <c r="I38" s="29"/>
       <c r="J38" s="61" t="s">
@@ -5276,12 +5286,12 @@
       <c r="C39" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+      <c r="D39" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
       <c r="H39" s="50"/>
       <c r="I39" s="29"/>
       <c r="J39" s="61" t="s">
@@ -5317,12 +5327,12 @@
       <c r="C40" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="50"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
@@ -5356,12 +5366,12 @@
       <c r="C41" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95"/>
       <c r="H41" s="50"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -5397,12 +5407,12 @@
       <c r="C42" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
       <c r="H42" s="50"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
@@ -5440,12 +5450,12 @@
       <c r="C43" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
       <c r="H43" s="50"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
@@ -5481,12 +5491,12 @@
       <c r="C44" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="50"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -5524,12 +5534,12 @@
       <c r="C45" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="50"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
@@ -5567,12 +5577,12 @@
       <c r="C46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="D46" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
       <c r="H46" s="50"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
@@ -5606,12 +5616,12 @@
       <c r="C47" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+      <c r="D47" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
       <c r="H47" s="50"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
@@ -5647,12 +5657,12 @@
       <c r="C48" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="116" t="s">
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="27"/>
@@ -5686,16 +5696,16 @@
       <c r="C49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="116" t="s">
+      <c r="D49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="95" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="51"/>
@@ -5802,8 +5812,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="96"/>
-      <c r="B52" s="97"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -5823,26 +5833,2236 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="95"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="97"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P1048576" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:AA52"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85C60A3-BA5A-4630-A380-9EAD816EDB68}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AF1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
+    </row>
+    <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="114"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>2</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="28"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="35">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="28"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36">
+        <v>2</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="28"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="37">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="37">
+        <v>4</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="28"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37">
+        <v>5</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37">
+        <v>6</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="95"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="28"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="28"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="34">
+        <v>3</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="28"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="34">
+        <v>4</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="28"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34">
+        <v>5</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="34">
+        <v>6</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="28"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="39">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="28"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="28"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="39">
+        <v>4</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="28"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="41">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="28"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41">
+        <v>2</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="28"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="28"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="28"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="28"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="42">
+        <v>3</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="42">
+        <v>4</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="42">
+        <v>5</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="28"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="42">
+        <v>6</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="28"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="28"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="43">
+        <v>2</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="50"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="28"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="43">
+        <v>3</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="28"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="44">
+        <v>1</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="28"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="44">
+        <v>2</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="28"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="44">
+        <v>3</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="45">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="28"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="45">
+        <v>2</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="28"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="28"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="28"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="46">
+        <v>2</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="28"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="28"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="64">
+        <v>1</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="47">
+        <v>1</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="28"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="48">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="28"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="73"/>
+    </row>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="30">
+        <f t="shared" ref="D52:G52" si="0">COUNTIF(D5:D51, "X")</f>
+        <v>17</v>
+      </c>
+      <c r="E52" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="X52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="96"/>
+      <c r="AA52" s="97"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD74DF-C696-40C8-9316-2FC3898A5F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1467AF-FFC0-49F1-99BD-C08E217E3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="2" activeTab="3" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIGNACIÓN DE RECURSOS" sheetId="2" r:id="rId1"/>
     <sheet name="DIAGRAMA DE GANTT 18-3-2025" sheetId="1" r:id="rId2"/>
     <sheet name="DIAGRAMA DE GANTT 20-3-2025" sheetId="3" r:id="rId3"/>
     <sheet name="DIAGRAMA DE GANTT 24-3-2025" sheetId="4" r:id="rId4"/>
+    <sheet name="DIAGRAMA DE GANTT 27-3-2025" sheetId="5" r:id="rId5"/>
+    <sheet name="DIAGRAMA DE GANTT 31-3-2025" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="84">
   <si>
     <t>CRONOGRAMA I2</t>
   </si>
@@ -805,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1008,15 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,15 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,115 +1499,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="113"/>
     </row>
     <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="104" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="113" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="119"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111" t="s">
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="121"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="105"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3602,8 +3616,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="98"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -3623,26 +3637,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="96"/>
-      <c r="W52" s="96"/>
-      <c r="X52" s="96"/>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="96"/>
-      <c r="AA52" s="97"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -3691,115 +3705,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="113"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="104" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="113" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="119"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111" t="s">
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="121"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="105"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5812,8 +5826,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="98"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -5833,26 +5847,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="96"/>
-      <c r="W52" s="96"/>
-      <c r="X52" s="96"/>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="96"/>
-      <c r="AA52" s="97"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -5883,7 +5897,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -5901,115 +5915,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="113"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="104" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="113" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="119"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="115" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111" t="s">
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="121"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="105"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -7025,7 +7039,7 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="119" t="s">
+      <c r="M27" s="98" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="50"/>
@@ -7064,7 +7078,7 @@
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
       <c r="L28" s="50"/>
-      <c r="M28" s="120" t="s">
+      <c r="M28" s="99" t="s">
         <v>39</v>
       </c>
       <c r="N28" s="50"/>
@@ -7144,7 +7158,7 @@
       <c r="L30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="121" t="s">
+      <c r="M30" s="100" t="s">
         <v>9</v>
       </c>
       <c r="N30" s="50"/>
@@ -7549,7 +7563,7 @@
       <c r="K40" s="29"/>
       <c r="L40" s="50"/>
       <c r="M40" s="28"/>
-      <c r="N40" s="117" t="s">
+      <c r="N40" s="96" t="s">
         <v>9</v>
       </c>
       <c r="O40" s="29"/>
@@ -7588,7 +7602,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="50"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="117" t="s">
+      <c r="N41" s="96" t="s">
         <v>9</v>
       </c>
       <c r="O41" s="15" t="s">
@@ -7881,7 +7895,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="27"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="118"/>
+      <c r="N48" s="97"/>
       <c r="O48" s="65"/>
       <c r="P48" s="65"/>
       <c r="Q48" s="65"/>
@@ -8022,8 +8036,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="98"/>
-      <c r="B52" s="99"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="74" t="s">
         <v>82</v>
       </c>
@@ -8043,26 +8057,4446 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="96"/>
-      <c r="W52" s="96"/>
-      <c r="X52" s="96"/>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="96"/>
-      <c r="AA52" s="97"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P1048576" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:AA52"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCDFAD3-D1CE-4023-B2C7-213952D00D8A}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AF1048576"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="113"/>
+    </row>
+    <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="119"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>2</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="28"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="35">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="28"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36">
+        <v>2</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="28"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="37">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="37">
+        <v>4</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="28"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37">
+        <v>5</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37">
+        <v>6</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="95"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="28"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="28"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="34">
+        <v>3</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="28"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="34">
+        <v>4</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="28"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34">
+        <v>5</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="34">
+        <v>6</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="28"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="39">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="28"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="28"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="39">
+        <v>4</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="28"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="41">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="28"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41">
+        <v>2</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="28"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="28"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="28"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="42">
+        <v>3</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="42">
+        <v>4</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="42">
+        <v>5</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="28"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="42">
+        <v>6</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="28"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="28"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="43">
+        <v>2</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="50"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="28"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="43">
+        <v>3</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="28"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="44">
+        <v>1</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="28"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="44">
+        <v>2</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="28"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="44">
+        <v>3</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="45">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="28"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="45">
+        <v>2</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="28"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="28"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="28"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="46">
+        <v>2</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="29"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="28"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="64">
+        <v>1</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="47">
+        <v>1</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="28"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="48">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="28"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="73"/>
+    </row>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="30">
+        <f t="shared" ref="D52:G52" si="0">COUNTIF(D5:D51, "X")</f>
+        <v>17</v>
+      </c>
+      <c r="E52" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P1048576" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="H52:AA52"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5F21FF-7E56-4A93-AF3B-274003FF1209}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AF1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="113"/>
+    </row>
+    <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="119"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1">
+        <v>16</v>
+      </c>
+      <c r="X4" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="35">
+        <v>2</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="28"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="35">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="28"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="28"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36">
+        <v>2</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="28"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="28"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="37">
+        <v>2</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="28"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="37">
+        <v>4</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="28"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37">
+        <v>5</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37">
+        <v>6</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="95"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="28"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="28"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="34">
+        <v>3</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="28"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="34">
+        <v>4</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="28"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34">
+        <v>5</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="28"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="34">
+        <v>6</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="28"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="39">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="28"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="39">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="28"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="39">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="28"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="39">
+        <v>4</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="28"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="41">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="94"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="28"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41">
+        <v>2</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="28"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="28"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="42">
+        <v>2</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="28"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="42">
+        <v>3</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="42">
+        <v>4</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="28"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="42">
+        <v>5</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="28"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="42">
+        <v>6</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="28"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="43">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="28"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="43">
+        <v>2</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="50"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="28"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="43">
+        <v>3</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="50"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="28"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="44">
+        <v>1</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="28"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="44">
+        <v>2</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="28"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="44">
+        <v>3</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="28"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="45">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="28"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="45">
+        <v>2</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="28"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="45">
+        <v>3</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="28"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="50"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="28"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="46">
+        <v>2</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="29"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="28"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="64">
+        <v>1</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="47">
+        <v>1</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="51"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="28"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="48">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="28"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="73"/>
+    </row>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="30">
+        <f t="shared" ref="D52:G52" si="0">COUNTIF(D5:D51, "X")</f>
+        <v>17</v>
+      </c>
+      <c r="E52" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G52" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6037E0E-F67E-402D-9D54-D525ECFD5436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6357A5AB-5283-4B63-A263-21EDA7AA3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="6" activeTab="5" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIGNACIÓN DE RECURSOS" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="85">
   <si>
     <t>TAREAS</t>
   </si>
@@ -447,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -807,11 +807,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,6 +1110,15 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3694,8 +3714,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5904,7 +5924,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
@@ -8113,8 +8133,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView topLeftCell="D9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9744,10 +9764,10 @@
       <c r="N39" s="50"/>
       <c r="O39" s="29"/>
       <c r="P39" s="28"/>
-      <c r="Q39" s="50"/>
+      <c r="Q39" s="129"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
+      <c r="T39" s="50"/>
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
       <c r="W39" s="29"/>
@@ -9778,15 +9798,15 @@
       <c r="K40" s="29"/>
       <c r="L40" s="50"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="96" t="s">
-        <v>8</v>
-      </c>
+      <c r="N40" s="29"/>
       <c r="O40" s="29"/>
       <c r="P40" s="28"/>
-      <c r="Q40" s="50"/>
+      <c r="Q40" s="130" t="s">
+        <v>8</v>
+      </c>
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
+      <c r="T40" s="50"/>
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
       <c r="W40" s="29"/>
@@ -9817,17 +9837,17 @@
       <c r="K41" s="29"/>
       <c r="L41" s="50"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="96" t="s">
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="R41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="29"/>
       <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
+      <c r="T41" s="50"/>
       <c r="U41" s="29"/>
       <c r="V41" s="29"/>
       <c r="W41" s="29"/>
@@ -9858,19 +9878,17 @@
       <c r="K42" s="29"/>
       <c r="L42" s="50"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="15" t="s">
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="123" t="s">
+      <c r="S42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
+      <c r="T42" s="50"/>
       <c r="U42" s="29"/>
       <c r="V42" s="29"/>
       <c r="W42" s="29"/>
@@ -9903,15 +9921,15 @@
       <c r="M43" s="29"/>
       <c r="N43" s="50"/>
       <c r="O43" s="29"/>
-      <c r="P43" s="124" t="s">
+      <c r="P43" s="28"/>
+      <c r="Q43" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="122" t="s">
+      <c r="R43" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="29"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
+      <c r="T43" s="50"/>
       <c r="U43" s="29"/>
       <c r="V43" s="29"/>
       <c r="W43" s="29"/>
@@ -9944,17 +9962,17 @@
       <c r="M44" s="29"/>
       <c r="N44" s="50"/>
       <c r="O44" s="29"/>
-      <c r="P44" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="122" t="s">
+      <c r="P44" s="28"/>
+      <c r="Q44" s="131" t="s">
         <v>8</v>
       </c>
       <c r="R44" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
+      <c r="S44" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="50"/>
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
@@ -9988,16 +10006,16 @@
       <c r="N45" s="50"/>
       <c r="O45" s="29"/>
       <c r="P45" s="28"/>
-      <c r="Q45" s="122" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q45" s="63"/>
       <c r="R45" s="75" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="29"/>
+      <c r="T45" s="122" t="s">
+        <v>8</v>
+      </c>
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
@@ -10322,8 +10340,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10707,9 +10725,15 @@
       <c r="C9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G9" s="52" t="s">
         <v>11</v>
       </c>
@@ -10733,16 +10757,16 @@
       </c>
       <c r="R9" s="28"/>
       <c r="S9" s="77" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="T9" s="55" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="U9" s="55" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -10760,8 +10784,12 @@
       <c r="C10" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
@@ -10782,11 +10810,11 @@
         <v>38</v>
       </c>
       <c r="R10" s="28"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
       <c r="V10" s="55" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -11983,13 +12011,15 @@
       <c r="K40" s="29"/>
       <c r="L40" s="50"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="96" t="s">
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="28"/>
+      <c r="R40" s="123" t="s">
+        <v>8</v>
+      </c>
       <c r="S40" s="50"/>
       <c r="T40" s="29"/>
       <c r="U40" s="29"/>
@@ -12022,15 +12052,15 @@
       <c r="K41" s="29"/>
       <c r="L41" s="50"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="96" t="s">
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="R41" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="28"/>
       <c r="S41" s="50"/>
       <c r="T41" s="29"/>
       <c r="U41" s="29"/>
@@ -12064,16 +12094,14 @@
       <c r="L42" s="50"/>
       <c r="M42" s="29"/>
       <c r="N42" s="50"/>
-      <c r="O42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
       <c r="Q42" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="28"/>
+      <c r="R42" s="123" t="s">
+        <v>8</v>
+      </c>
       <c r="S42" s="50"/>
       <c r="T42" s="29"/>
       <c r="U42" s="29"/>
@@ -12107,14 +12135,14 @@
       <c r="L43" s="50"/>
       <c r="M43" s="29"/>
       <c r="N43" s="50"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="75" t="s">
-        <v>8</v>
-      </c>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
       <c r="Q43" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="28"/>
+      <c r="R43" s="124" t="s">
+        <v>8</v>
+      </c>
       <c r="S43" s="50"/>
       <c r="T43" s="29"/>
       <c r="U43" s="29"/>
@@ -12148,17 +12176,17 @@
       <c r="L44" s="50"/>
       <c r="M44" s="29"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="75" t="s">
-        <v>8</v>
-      </c>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
       <c r="Q44" s="122" t="s">
         <v>8</v>
       </c>
       <c r="R44" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="50"/>
+      <c r="S44" s="75" t="s">
+        <v>8</v>
+      </c>
       <c r="T44" s="29"/>
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
@@ -12191,8 +12219,8 @@
       <c r="L45" s="50"/>
       <c r="M45" s="29"/>
       <c r="N45" s="50"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
       <c r="Q45" s="122" t="s">
         <v>8</v>
       </c>
@@ -12301,8 +12329,12 @@
       <c r="C48" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
+      <c r="D48" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>11</v>
+      </c>
       <c r="F48" s="94" t="s">
         <v>11</v>
       </c>
@@ -12463,15 +12495,15 @@
       </c>
       <c r="D52" s="30">
         <f t="shared" ref="D52:G52" si="0">COUNTIF(D5:D51, "X")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52" s="30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G52" s="30">
         <f t="shared" si="0"/>
@@ -12527,7 +12559,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>

--- a/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
+++ b/Reuniones_Coordinacion/I3_Gant_D1_Saul_Fernando_Raquel_Irene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\saul\Pprog_conversation\Reuniones_Coordinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CBA5B-5BB2-4783-9B91-0EE97D674BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D557C49-966A-4DA8-877C-7813C2EEC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{05C49126-5558-4AD1-950B-328547F3A5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ASIGNACIÓN DE RECURSOS" sheetId="2" r:id="rId1"/>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1189,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,12 +1253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,7 +1644,7 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -1665,115 +1662,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3782,8 +3779,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -3803,26 +3800,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -3871,115 +3868,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5992,8 +5989,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -6013,26 +6010,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -6081,115 +6078,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -6366,10 +6363,10 @@
       <c r="C7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="177" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -8202,8 +8199,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -8223,26 +8220,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -8291,115 +8288,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -8576,10 +8573,10 @@
       <c r="C7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="177" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -10410,8 +10407,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -10431,26 +10428,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -10499,115 +10496,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -10784,10 +10781,10 @@
       <c r="C7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="177" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -12630,8 +12627,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -12651,26 +12648,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
@@ -12701,8 +12698,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12712,122 +12709,121 @@
     <col min="3" max="3" width="37.6328125" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="17" width="2.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="2.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="10.90625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="167"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="172" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="173"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="174"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="174" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170" t="s">
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170" t="s">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170" t="s">
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="175"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="176"/>
       <c r="AB3"/>
     </row>
     <row r="4" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="164"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
@@ -13004,10 +13000,10 @@
       <c r="C7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="177" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
@@ -14107,7 +14103,7 @@
       </c>
       <c r="S33" s="103"/>
       <c r="T33" s="103"/>
-      <c r="U33" s="176" t="s">
+      <c r="U33" s="155" t="s">
         <v>8</v>
       </c>
       <c r="V33" s="27"/>
@@ -14856,8 +14852,8 @@
       <c r="AA51" s="73"/>
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="74" t="s">
         <v>81</v>
       </c>
@@ -14877,26 +14873,26 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="156"/>
+      <c r="W52" s="156"/>
+      <c r="X52" s="156"/>
+      <c r="Y52" s="156"/>
+      <c r="Z52" s="156"/>
+      <c r="AA52" s="157"/>
     </row>
     <row r="53" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.35">
